--- a/Edo-common-main/Assets/Database/0_Common/wordsDictionary/list_wordsDictionary.xlsx
+++ b/Edo-common-main/Assets/Database/0_Common/wordsDictionary/list_wordsDictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Projects\Edo-common\Assets\Database\0_Common\wordsDictionary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koumori0\Edo-common-main\Edo-common-main\Assets\Database\0_Common\wordsDictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9AFAED-B904-42D8-92DB-E5AEE8DA5CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FBED9B-92FA-4DBB-BCD7-4AA29C4460EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8820" yWindow="3420" windowWidth="21585" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8544" yWindow="1512" windowWidth="10848" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="1" r:id="rId1"/>
@@ -229,13 +229,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;r=とお&gt;通&lt;/r&gt;し</t>
-    <rPh sb="6" eb="7">
-      <t>トオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>万筋</t>
     <rPh sb="0" eb="2">
       <t>マンスジ</t>
@@ -354,6 +347,10 @@
   </si>
   <si>
     <t>さんやく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とおし</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -695,14 +692,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="15.125" customWidth="1"/>
-    <col min="2" max="2" width="59.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.09765625" customWidth="1"/>
+    <col min="2" max="2" width="59.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -854,95 +851,95 @@
         <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
         <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
         <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
         <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
         <v>46</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
         <v>48</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
         <v>50</v>
-      </c>
-      <c r="B26" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
         <v>52</v>
-      </c>
-      <c r="B27" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
         <v>54</v>
-      </c>
-      <c r="B28" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
         <v>57</v>
-      </c>
-      <c r="B30" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
